--- a/01_開発/01_設計/データベース設計.xlsx
+++ b/01_開発/01_設計/データベース設計.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="5" r:id="rId1"/>
-    <sheet name="Apply" sheetId="6" r:id="rId2"/>
-    <sheet name="Holiday" sheetId="7" r:id="rId3"/>
-    <sheet name="Workday" sheetId="8" r:id="rId4"/>
+    <sheet name="user" sheetId="5" r:id="rId1"/>
+    <sheet name="apply" sheetId="6" r:id="rId2"/>
+    <sheet name="holiday" sheetId="7" r:id="rId3"/>
+    <sheet name="workday" sheetId="8" r:id="rId4"/>
     <sheet name="※ルール" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -77,14 +77,6 @@
   </si>
   <si>
     <t>注意</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名は頭文字のみ大文字。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム名は小文字、アンダーバーを用いる。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -303,19 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名：　Workday　休日出勤</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キュウジツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,13 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名：　User　ユーザー</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名：　Apply 申請</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -450,6 +422,49 @@
     <t>ユーザーに紐づく Userのuser_id</t>
     <rPh sb="5" eb="6">
       <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名・カラム名はスネークケースで表記する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：　workday　休日出勤</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：　user　ユーザー</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：　holiday　休暇</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キュウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,21 +895,21 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -902,13 +917,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -916,13 +931,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -930,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -942,21 +957,21 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -965,10 +980,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -980,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -989,41 +1004,41 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1048,35 +1063,35 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1084,164 +1099,164 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1255,9 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1268,114 +1281,114 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1401,136 +1414,136 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1542,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -1557,12 +1570,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/01_開発/01_設計/データベース設計.xlsx
+++ b/01_開発/01_設計/データベース設計.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
@@ -11,14 +11,15 @@
     <sheet name="apply" sheetId="6" r:id="rId2"/>
     <sheet name="holiday" sheetId="7" r:id="rId3"/>
     <sheet name="workday" sheetId="8" r:id="rId4"/>
-    <sheet name="※ルール" sheetId="4" r:id="rId5"/>
+    <sheet name="user_holiday" sheetId="10" r:id="rId5"/>
+    <sheet name="※ルール" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -49,10 +50,6 @@
   </si>
   <si>
     <t>連番（シーケンス）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emp_num</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -246,10 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始時間</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -319,10 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>暗号化する</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
@@ -334,16 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名：　Apply 申請</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1：申請 2：決算済</t>
   </si>
   <si>
@@ -365,9 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:代休 2:有給</t>
-  </si>
-  <si>
     <t>申請タイプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -392,16 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：終日　1：半日</t>
-    <rPh sb="2" eb="4">
-      <t>シュウジツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>休暇日</t>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
@@ -452,13 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名：　user　ユーザー</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名：　holiday　休暇</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -467,13 +426,186 @@
       <t>キュウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:代休 2:有給 3:休日出勤 </t>
+    <rPh sb="12" eb="14">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:有給 2:休日出勤 3:代休 4:特別休暇 5:欠勤</t>
+    <rPh sb="7" eb="9">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：　user　社員情報</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：　Apply 申請情報</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：user_holiday 個人ごとの休暇情報</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給付与日</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残有給休暇日数</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：一般ユーザー　1：承認者(1)　2：承認者(2) 3：システム管理者</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paid_holidays</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paid_holiday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userholi_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>innteger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認日</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approval_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +637,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -556,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +717,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,10 +813,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +847,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,35 +1022,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="56.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -917,27 +1059,27 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -945,102 +1087,116 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>76</v>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1049,49 +1205,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1099,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1122,143 +1278,155 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1267,128 +1435,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1400,150 +1570,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1554,7 +1726,141 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1565,12 +1871,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
